--- a/Global/Excel/Skills.xlsx
+++ b/Global/Excel/Skills.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\Global\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA572229-47FA-4DBE-9FA4-CD313221FB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090DD36-4DD0-404C-B363-70410BCAECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15329" uniqueCount="2669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15329" uniqueCount="2678">
   <si>
     <t>skill</t>
   </si>
@@ -8027,12 +8027,48 @@
   </si>
   <si>
     <t>siegebeast_attack_1</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8980,14 +9016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="HG112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="HY156" sqref="HY156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32954,13 +32990,13 @@
         <v>259</v>
       </c>
       <c r="FR156" s="1" t="s">
-        <v>264</v>
+        <v>2669</v>
       </c>
       <c r="FS156" s="1" t="s">
-        <v>298</v>
+        <v>2670</v>
       </c>
       <c r="FT156" s="1" t="s">
-        <v>259</v>
+        <v>2671</v>
       </c>
       <c r="FU156" s="1" t="s">
         <v>259</v>
@@ -32990,40 +33026,40 @@
         <v>264</v>
       </c>
       <c r="HM156" s="1" t="s">
-        <v>295</v>
+        <v>2672</v>
       </c>
       <c r="HN156" s="1" t="s">
-        <v>290</v>
+        <v>2673</v>
       </c>
       <c r="HO156" s="1" t="s">
-        <v>303</v>
+        <v>2674</v>
       </c>
       <c r="HP156" s="1" t="s">
-        <v>264</v>
+        <v>2675</v>
       </c>
       <c r="HQ156" s="1" t="s">
-        <v>299</v>
+        <v>2676</v>
       </c>
       <c r="HR156" s="1" t="s">
-        <v>298</v>
+        <v>2677</v>
       </c>
       <c r="HS156" s="1" t="s">
-        <v>365</v>
+        <v>2670</v>
       </c>
       <c r="HT156" s="1" t="s">
-        <v>290</v>
+        <v>2673</v>
       </c>
       <c r="HU156" s="1" t="s">
-        <v>303</v>
+        <v>2674</v>
       </c>
       <c r="HV156" s="1" t="s">
-        <v>264</v>
+        <v>2675</v>
       </c>
       <c r="HW156" s="1" t="s">
-        <v>299</v>
+        <v>2676</v>
       </c>
       <c r="HX156" s="1" t="s">
-        <v>298</v>
+        <v>2677</v>
       </c>
       <c r="HY156" s="1" t="s">
         <v>1618</v>

--- a/Global/Excel/Skills.xlsx
+++ b/Global/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\Global\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4090DD36-4DD0-404C-B363-70410BCAECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DA805B-8035-4040-B909-F42B7B8C8F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15329" uniqueCount="2678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15329" uniqueCount="2679">
   <si>
     <t>skill</t>
   </si>
@@ -8062,6 +8062,10 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9020,10 +9024,10 @@
   <dimension ref="A1:IV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="HG112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="GL112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="HY156" sqref="HY156"/>
+      <selection pane="bottomRight" activeCell="GQ140" sqref="GQ140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30771,7 +30775,7 @@
         <v>845</v>
       </c>
       <c r="GQ140" s="1" t="s">
-        <v>722</v>
+        <v>2678</v>
       </c>
       <c r="GR140" s="1" t="s">
         <v>329</v>

--- a/Global/Excel/Skills.xlsx
+++ b/Global/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\Global\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFD4B76-D518-4301-B705-696492AB3148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55743569-56B3-4AB5-9B5E-09D8A99E7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15374" uniqueCount="2707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15376" uniqueCount="2713">
   <si>
     <t>skill</t>
   </si>
@@ -8167,6 +8167,29 @@
   </si>
   <si>
     <t>par7+skill('Increased Stamina'.blvl)*10</t>
+  </si>
+  <si>
+    <t>Area Damage % Range Scaling (from 100% to 100+X% damage, based on how close the enemy position is to the caster)</t>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9124,10 +9147,10 @@
   <dimension ref="A1:IV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="HH149" sqref="HH149"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25465,14 +25488,20 @@
       <c r="GV104" s="1" t="s">
         <v>1209</v>
       </c>
+      <c r="GW104" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="GX104" s="1" t="s">
+        <v>2707</v>
+      </c>
       <c r="GY104" s="1" t="s">
-        <v>290</v>
+        <v>2670</v>
       </c>
       <c r="GZ104" s="1" t="s">
         <v>308</v>
       </c>
       <c r="HA104" s="1" t="s">
-        <v>395</v>
+        <v>2708</v>
       </c>
       <c r="HB104" s="1" t="s">
         <v>308</v>
@@ -25496,34 +25525,34 @@
         <v>259</v>
       </c>
       <c r="IC104" s="1" t="s">
-        <v>267</v>
+        <v>2709</v>
       </c>
       <c r="ID104" s="1" t="s">
-        <v>275</v>
+        <v>2664</v>
       </c>
       <c r="IE104" s="1" t="s">
-        <v>284</v>
+        <v>2710</v>
       </c>
       <c r="IF104" s="1" t="s">
-        <v>303</v>
+        <v>2668</v>
       </c>
       <c r="IG104" s="1" t="s">
         <v>290</v>
       </c>
       <c r="IH104" s="1" t="s">
-        <v>259</v>
+        <v>2711</v>
       </c>
       <c r="II104" s="1" t="s">
-        <v>267</v>
+        <v>2712</v>
       </c>
       <c r="IJ104" s="1" t="s">
-        <v>275</v>
+        <v>2710</v>
       </c>
       <c r="IK104" s="1" t="s">
-        <v>284</v>
+        <v>2668</v>
       </c>
       <c r="IL104" s="1" t="s">
-        <v>303</v>
+        <v>2669</v>
       </c>
       <c r="IM104" s="1" t="s">
         <v>1210</v>

--- a/Global/Excel/Skills.xlsx
+++ b/Global/Excel/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\Global\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55743569-56B3-4AB5-9B5E-09D8A99E7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B57366-4CB8-4C4A-A45F-C81B8C249A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15376" uniqueCount="2713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15386" uniqueCount="2714">
   <si>
     <t>skill</t>
   </si>
@@ -8189,6 +8189,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln34</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9147,10 +9151,10 @@
   <dimension ref="A1:IV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="HY81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomRight" activeCell="IB105" sqref="IB105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25596,7 +25600,13 @@
         <v>1092</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>317</v>
+        <v>1123</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD105" s="1" t="s">
+        <v>2713</v>
       </c>
       <c r="DF105" s="1" t="s">
         <v>259</v>
@@ -25669,6 +25679,24 @@
       </c>
       <c r="HK105" s="1" t="s">
         <v>264</v>
+      </c>
+      <c r="IA105" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="IB105" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="IC105" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="ID105" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="IE105" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="IF105" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="IU105" s="1" t="s">
         <v>366</v>
@@ -27325,10 +27353,10 @@
         <v>1209</v>
       </c>
       <c r="GW116" s="1" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="GX116" s="1" t="s">
-        <v>1220</v>
+        <v>2707</v>
       </c>
       <c r="GY116" s="1" t="s">
         <v>303</v>
@@ -27981,10 +28009,10 @@
         <v>1209</v>
       </c>
       <c r="GW120" s="1" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="GX120" s="1" t="s">
-        <v>1220</v>
+        <v>2707</v>
       </c>
       <c r="GY120" s="1" t="s">
         <v>269</v>
@@ -28176,6 +28204,12 @@
       </c>
       <c r="GX121" s="1" t="s">
         <v>1356</v>
+      </c>
+      <c r="GY121" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="GZ121" s="1" t="s">
+        <v>2707</v>
       </c>
       <c r="HA121" s="1" t="s">
         <v>303</v>

--- a/Global/Excel/Skills.xlsx
+++ b/Global/Excel/Skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\Global\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AD1D8C-9B58-4780-A2AF-73B6E38BF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090CE23-366E-44C7-B648-AB7F283DCB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9170,10 +9170,10 @@
   <dimension ref="A1:IV359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="GL80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="ET80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="GS118" sqref="GS118"/>
+      <selection pane="bottomRight" activeCell="FJ123" sqref="FJ123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28538,7 +28538,7 @@
         <v>1314</v>
       </c>
       <c r="FJ123" s="1" t="s">
-        <v>326</v>
+        <v>2669</v>
       </c>
       <c r="FK123" s="1" t="s">
         <v>259</v>
